--- a/parabolic/2025/08/25/parabolic.xlsx
+++ b/parabolic/2025/08/25/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2931</t>
+          <t>2418</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>482</v>
+        <v>681</v>
       </c>
       <c r="D2" t="n">
-        <v>200700</v>
+        <v>109800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>297A</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="D3" t="n">
-        <v>309600</v>
+        <v>171000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>4583</t>
+          <t>2931</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>141</v>
+        <v>486</v>
       </c>
       <c r="D4" t="n">
-        <v>347200</v>
+        <v>368700</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4902</t>
+          <t>297A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>523.5999755859375</v>
+        <v>236</v>
       </c>
       <c r="D5" t="n">
-        <v>517800</v>
+        <v>381900</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6464</t>
+          <t>3647</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>367</v>
+        <v>153</v>
       </c>
       <c r="D6" t="n">
-        <v>145100</v>
+        <v>184900</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6625</t>
+          <t>3660</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>325</v>
+        <v>643</v>
       </c>
       <c r="D7" t="n">
-        <v>194300</v>
+        <v>1321200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7571</t>
+          <t>4583</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="D8" t="n">
-        <v>11707600</v>
+        <v>456900</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>8143</t>
+          <t>4902</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>280</v>
+        <v>523</v>
       </c>
       <c r="D9" t="n">
-        <v>142300</v>
+        <v>821600</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>8515</t>
+          <t>6200</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>485</v>
+        <v>996</v>
       </c>
       <c r="D10" t="n">
-        <v>1182300</v>
+        <v>220600</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>9424</t>
+          <t>6464</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,16 +689,154 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>172</v>
+        <v>367</v>
       </c>
       <c r="D11" t="n">
-        <v>1190400</v>
+        <v>251300</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>6625</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D12" t="n">
+        <v>348000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>7571</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>163</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15719300</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>7610</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>149</v>
+      </c>
+      <c r="D14" t="n">
+        <v>613700</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>8143</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>278</v>
+      </c>
+      <c r="D15" t="n">
+        <v>163200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>8515</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>482</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1584900</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>9424</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>173</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2552200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/25/parabolic.xlsx
+++ b/parabolic/2025/08/25/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2418</t>
+          <t>156A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>681</v>
+        <v>829</v>
       </c>
       <c r="D2" t="n">
-        <v>109800</v>
+        <v>104900</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>2418</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>136</v>
+        <v>683</v>
       </c>
       <c r="D3" t="n">
-        <v>171000</v>
+        <v>140100</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2931</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>486</v>
+        <v>140</v>
       </c>
       <c r="D4" t="n">
-        <v>368700</v>
+        <v>260100</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>297A</t>
+          <t>2931</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>236</v>
+        <v>488</v>
       </c>
       <c r="D5" t="n">
-        <v>381900</v>
+        <v>528900</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3647</t>
+          <t>297A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="D6" t="n">
-        <v>184900</v>
+        <v>413000</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>3647</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>643</v>
+        <v>155</v>
       </c>
       <c r="D7" t="n">
-        <v>1321200</v>
+        <v>198800</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4583</t>
+          <t>3660</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>140</v>
+        <v>644</v>
       </c>
       <c r="D8" t="n">
-        <v>456900</v>
+        <v>1894400</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4902</t>
+          <t>4583</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>523</v>
+        <v>142</v>
       </c>
       <c r="D9" t="n">
-        <v>821600</v>
+        <v>525300</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6200</t>
+          <t>4902</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>996</v>
+        <v>520</v>
       </c>
       <c r="D10" t="n">
-        <v>220600</v>
+        <v>1272600</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D11" t="n">
-        <v>251300</v>
+        <v>308100</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D12" t="n">
-        <v>348000</v>
+        <v>433000</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D13" t="n">
-        <v>15719300</v>
+        <v>17720000</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>149</v>
       </c>
       <c r="D14" t="n">
-        <v>613700</v>
+        <v>1312400</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D15" t="n">
-        <v>163200</v>
+        <v>204200</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D16" t="n">
-        <v>1584900</v>
+        <v>1874300</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>9424</t>
+          <t>8995</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,16 +827,39 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>173</v>
+        <v>904</v>
       </c>
       <c r="D17" t="n">
-        <v>2552200</v>
+        <v>117800</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>9424</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>174</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3063100</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/25/parabolic.xlsx
+++ b/parabolic/2025/08/25/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D2" t="n">
-        <v>104900</v>
+        <v>138400</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D3" t="n">
-        <v>140100</v>
+        <v>181400</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>2428</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>140</v>
+        <v>771</v>
       </c>
       <c r="D4" t="n">
-        <v>260100</v>
+        <v>297300</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2931</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>488</v>
+        <v>140</v>
       </c>
       <c r="D5" t="n">
-        <v>528900</v>
+        <v>329400</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>297A</t>
+          <t>2931</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>235</v>
+        <v>482</v>
       </c>
       <c r="D6" t="n">
-        <v>413000</v>
+        <v>670900</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3647</t>
+          <t>297A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c r="D7" t="n">
-        <v>198800</v>
+        <v>473000</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>3647</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>644</v>
+        <v>154</v>
       </c>
       <c r="D8" t="n">
-        <v>1894400</v>
+        <v>202100</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4583</t>
+          <t>3660</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>142</v>
+        <v>661</v>
       </c>
       <c r="D9" t="n">
-        <v>525300</v>
+        <v>2927900</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4902</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>520</v>
+        <v>997</v>
       </c>
       <c r="D10" t="n">
-        <v>1272600</v>
+        <v>597000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>6464</t>
+          <t>4583</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>361</v>
+        <v>142</v>
       </c>
       <c r="D11" t="n">
-        <v>308100</v>
+        <v>717600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6625</t>
+          <t>4902</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>331</v>
+        <v>521.0999755859375</v>
       </c>
       <c r="D12" t="n">
-        <v>433000</v>
+        <v>2046800</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7571</t>
+          <t>6096</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>159</v>
+        <v>378</v>
       </c>
       <c r="D13" t="n">
-        <v>17720000</v>
+        <v>552900</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>7610</t>
+          <t>6464</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>149</v>
+        <v>357</v>
       </c>
       <c r="D14" t="n">
-        <v>1312400</v>
+        <v>389400</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>8143</t>
+          <t>6625</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="D15" t="n">
-        <v>204200</v>
+        <v>537200</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>8515</t>
+          <t>7068</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>481</v>
+        <v>611</v>
       </c>
       <c r="D16" t="n">
-        <v>1874300</v>
+        <v>155300</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>8995</t>
+          <t>7571</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>904</v>
+        <v>160</v>
       </c>
       <c r="D17" t="n">
-        <v>117800</v>
+        <v>18975600</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>9424</t>
+          <t>7610</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,16 +850,108 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="D18" t="n">
-        <v>3063100</v>
+        <v>1572900</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>8143</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>285</v>
+      </c>
+      <c r="D19" t="n">
+        <v>267100</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>8515</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>478</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2424600</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>8995</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>936</v>
+      </c>
+      <c r="D21" t="n">
+        <v>143100</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>9424</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>171</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3742900</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/25/parabolic.xlsx
+++ b/parabolic/2025/08/25/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6464</t>
+          <t>6625</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="D14" t="n">
-        <v>389400</v>
+        <v>537200</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6625</t>
+          <t>7068</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>331</v>
+        <v>611</v>
       </c>
       <c r="D15" t="n">
-        <v>537200</v>
+        <v>155300</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>7068</t>
+          <t>7571</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>611</v>
+        <v>160</v>
       </c>
       <c r="D16" t="n">
-        <v>155300</v>
+        <v>18975600</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>7571</t>
+          <t>7610</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D17" t="n">
-        <v>18975600</v>
+        <v>1572900</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>7610</t>
+          <t>8143</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>149</v>
+        <v>285</v>
       </c>
       <c r="D18" t="n">
-        <v>1572900</v>
+        <v>267100</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>8143</t>
+          <t>8515</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>285</v>
+        <v>478</v>
       </c>
       <c r="D19" t="n">
-        <v>267100</v>
+        <v>2424600</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>8515</t>
+          <t>8995</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>478</v>
+        <v>936</v>
       </c>
       <c r="D20" t="n">
-        <v>2424600</v>
+        <v>143100</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>8995</t>
+          <t>9424</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,39 +919,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>936</v>
+        <v>171</v>
       </c>
       <c r="D21" t="n">
-        <v>143100</v>
+        <v>3742900</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>9424</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>171</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3742900</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/25/parabolic.xlsx
+++ b/parabolic/2025/08/25/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6625</t>
+          <t>6464</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="D14" t="n">
-        <v>537200</v>
+        <v>389400</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>7068</t>
+          <t>6625</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>611</v>
+        <v>331</v>
       </c>
       <c r="D15" t="n">
-        <v>155300</v>
+        <v>537200</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>7571</t>
+          <t>7068</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>160</v>
+        <v>611</v>
       </c>
       <c r="D16" t="n">
-        <v>18975600</v>
+        <v>155300</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>7610</t>
+          <t>7571</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D17" t="n">
-        <v>1572900</v>
+        <v>18975600</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>8143</t>
+          <t>7610</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>285</v>
+        <v>149</v>
       </c>
       <c r="D18" t="n">
-        <v>267100</v>
+        <v>1572900</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>8515</t>
+          <t>8143</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>478</v>
+        <v>285</v>
       </c>
       <c r="D19" t="n">
-        <v>2424600</v>
+        <v>267100</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>8995</t>
+          <t>8515</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>936</v>
+        <v>478</v>
       </c>
       <c r="D20" t="n">
-        <v>143100</v>
+        <v>2424600</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>9424</t>
+          <t>8995</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,16 +919,39 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>171</v>
+        <v>936</v>
       </c>
       <c r="D21" t="n">
-        <v>3742900</v>
+        <v>143100</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>9424</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>171</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3742900</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
